--- a/biology/Zoologie/Asterophryinae/Asterophryinae.xlsx
+++ b/biology/Zoologie/Asterophryinae/Asterophryinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Asterophryinae sont une sous-famille d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Asterophryinae sont une sous-famille d'amphibiens de la famille des Microhylidae.
 Elle a été décrite en 1858 par Albert Charles Lewis Günther, herpétologiste et ichtyologiste britannique d'origine allemande.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces des 21 genres de cette sous-famille se rencontrent en Indonésie et en Papouasie-Nouvelle-Guinée dans l'archipel des Moluques, la Nouvelle-Guinée et l'archipel des Louisiades[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces des 21 genres de cette sous-famille se rencontrent en Indonésie et en Papouasie-Nouvelle-Guinée dans l'archipel des Moluques, la Nouvelle-Guinée et l'archipel des Louisiades.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (25 septembre 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (25 septembre 2015) :
 Aphantophryne Fry, 1917
 Asterophrys Tschudi, 1838
 Austrochaperina Fry, 1912
@@ -596,7 +612,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1890 : Second report on additions to the batrachian collection in the Natural-History Museum. Proceedings of the Zoological Society of London, vol. 1890, p. 323-328 (texte intégral).
 Burton, 1986 : A reassessment of the Papuan subfamily Asterophryinae (Anura: Microhylidae). Records of the South Australian Museum, vol. 19, p. 405-450 (texte intégral).
